--- a/evaluation/results/one_svm/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_2/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.2763711522846387</v>
       </c>
       <c r="H2">
-        <v>0.5852059925093632</v>
+        <v>0.8002531947425269</v>
       </c>
       <c r="I2">
         <v>144</v>

--- a/evaluation/results/one_svm/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5852059925093633</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="C2">
-        <v>0.7309644670050761</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="D2">
-        <v>0.2696629213483146</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="E2">
-        <v>0.3939808481532148</v>
+        <v>0.7445887445887446</v>
       </c>
       <c r="F2">
-        <v>0.3086155165023575</v>
+        <v>0.8634538152610441</v>
       </c>
       <c r="G2">
-        <v>0.2763711522846387</v>
+        <v>0.9446556822982678</v>
       </c>
       <c r="H2">
-        <v>0.8002531947425269</v>
+        <v>0.798103494227721</v>
       </c>
       <c r="I2">
-        <v>144</v>
+        <v>516</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>336</v>
       </c>
       <c r="K2">
-        <v>481</v>
+        <v>198</v>
       </c>
       <c r="L2">
-        <v>390</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5522388059701493</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C2">
-        <v>0.900749063670412</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="D2">
-        <v>0.6846975088967971</v>
+        <v>0.528</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.7309644670050761</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="C3">
-        <v>0.2696629213483146</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="D3">
-        <v>0.3939808481532148</v>
+        <v>0.7445887445887446</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5852059925093633</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="C4">
-        <v>0.5852059925093633</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="D4">
-        <v>0.5852059925093633</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="E4">
-        <v>0.5852059925093633</v>
+        <v>0.6685393258426966</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6416016364876127</v>
+        <v>0.761150234741784</v>
       </c>
       <c r="C5">
-        <v>0.5852059925093633</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="D5">
-        <v>0.5393391785250059</v>
+        <v>0.6362943722943724</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.6416016364876126</v>
+        <v>0.761150234741784</v>
       </c>
       <c r="C6">
-        <v>0.5852059925093633</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="D6">
-        <v>0.5393391785250059</v>
+        <v>0.6362943722943722</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>481</v>
+        <v>198</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>390</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>144</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
